--- a/Config/Excel/Localization_Builtin.xlsx
+++ b/Config/Excel/Localization_Builtin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Config/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24D011-7804-4D45-AD59-EC85E55B2E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76257D-4EE6-431E-B6F8-878C837F432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="4760" windowWidth="18740" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2895" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -38,73 +38,59 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>##var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>简体中文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>繁体中文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>文本key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>韩文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>English</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ChineseSimplified</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ChineseTraditional</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Korean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language.English</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language.ChineseSimplified</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language.ChineseTraditional</t>
-  </si>
-  <si>
-    <t>Language.Korean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CheckVersion.Tips</t>
@@ -113,22 +99,6 @@
     <t>UpdateResource.Tips</t>
   </si>
   <si>
-    <t>English</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>Chinese Simplified</t>
-  </si>
-  <si>
-    <t>Chinese Traditional</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
     <t>Checking if the game needs update. Please wait...</t>
   </si>
   <si>
@@ -136,62 +106,25 @@
   </si>
   <si>
     <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简体中文</t>
-  </si>
-  <si>
-    <t>繁体中文</t>
-  </si>
-  <si>
-    <t>韩语</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>正在检查游戏是否需要更新，请稍候……</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡體中文</t>
-  </si>
-  <si>
-    <t>英語</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁體中文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓語</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>正在檢查遊戲是否需要更新，請稍候……</t>
   </si>
   <si>
-    <t>영어</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Game Framework </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Batang"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데모중국어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="129"/>
+    <r>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -200,49 +133,33 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Batang"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>최신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Batang"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로그램</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>중국어</t>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버전</t>
     </r>
     <r>
       <rPr>
@@ -263,14 +180,97 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>번체</t>
-    </r>
-  </si>
-  <si>
-    <t>한국어</t>
-  </si>
-  <si>
-    <r>
+      <t>검색중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <t>ForceUpdate.Title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT OF DATE</t>
+  </si>
+  <si>
+    <t>强制更新</t>
+  </si>
+  <si>
+    <t>強制更新</t>
+  </si>
+  <si>
+    <r>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+  </si>
+  <si>
+    <t>ForceUpdate.Message</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current game version is out-of-date. Would you like to go for update now?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前游戏版本过旧，是否前往更新？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>當前遊戲版本過舊，是否前往更新？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>게임</t>
     </r>
     <r>
@@ -292,7 +292,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>최신</t>
+      <t>버전이</t>
     </r>
     <r>
       <rPr>
@@ -313,7 +313,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>버전</t>
+      <t>있는데</t>
     </r>
     <r>
       <rPr>
@@ -334,30 +334,94 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>검색중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>...</t>
-    </r>
+      <t>업데이트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>원하십니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceUpdate.UpdateButton</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>업데이트</t>
+  </si>
+  <si>
+    <t>ForceUpdate.QuitButton</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIT</t>
+  </si>
+  <si>
+    <t>推出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>아웃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,37 +451,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Batang"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -461,19 +494,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -760,18 +791,18 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" activeCellId="1" sqref="F8 E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -811,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -831,111 +862,111 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>40</v>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="32">
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Config/Excel/Localization_Builtin.xlsx
+++ b/Config/Excel/Localization_Builtin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Config/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76257D-4EE6-431E-B6F8-878C837F432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B50C8-0A22-8145-B27B-B08ABF21324F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2895" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="1860" windowWidth="23680" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>##var</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -93,22 +93,9 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CheckVersion.Tips</t>
-  </si>
-  <si>
-    <t>UpdateResource.Tips</t>
-  </si>
-  <si>
     <t>Checking if the game needs update. Please wait...</t>
   </si>
   <si>
-    <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
-  </si>
-  <si>
-    <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>正在检查游戏是否需要更新，请稍候……</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -402,13 +389,165 @@
   </si>
   <si>
     <t>아웃</t>
+  </si>
+  <si>
+    <t>InitPackage.Tips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try to initialize the resource package…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化资源包中...</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒得写</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitPackage.Failed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to initialize package!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源包初始化失败！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateVersion.Tips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateVersion.Error.Network</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前网络不可用，请检查网络后重试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to update static version, please check the network status.</t>
+  </si>
+  <si>
+    <t>UpdateVersion.Error.Network2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updating manifest…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新资源清单…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateManiFest.Tips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to update patch manifest, please check the network status.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取版本号失败，请检查网络后重试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新补丁清单失败，请检查网络后重试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateManiFest.Error.Network</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatePackageDownloader.Tips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建补丁下载器…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creating resources downloader…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatePackageDownloader.Message</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Found update patch files, Total count {0}, Total size {1} MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现新文件，数量：{0}，共计大小 {1} MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadPackageFiles.Tips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始下载补丁文件…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to download path files…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件失败，请检查网络后重试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current network is inaccessible, please check and retry.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadPackageFiles.Error.Network</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearPackageCache.Tips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clearing package cache…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清理未使用的缓存文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Menlo-Regular"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +593,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC9A26D"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Menlo-Regular"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Menlo-Regular"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -498,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,6 +670,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -788,21 +955,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
-    <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -842,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,107 +1031,253 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
